--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="15990" windowHeight="24840"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="136">
   <si>
     <t>Номер проверки</t>
   </si>
@@ -389,18 +390,83 @@
   <si>
     <t>Работа с новостями 
 (21 проверка)</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Выполняемые шаги</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Возможна ли автоматизация</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>Примерная оценка времени прогона (минуты):</t>
+  </si>
+  <si>
+    <t>Общее время прогона тестов:</t>
+  </si>
+  <si>
+    <t>Установка приложения на телефон с minimal SDK, указанным в проекте</t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>Созданный эмулятор в Android Studio с Google API 21, тип - телефон, ориентация по умолчанию - вертикальная</t>
+  </si>
+  <si>
+    <t>1. Запуск указанного эмулятора 2. Запуск установки приложения 3. Авторизация</t>
+  </si>
+  <si>
+    <t>Приложение устанавливается на устройство без ошибок, запускается, после авторизации доступен его контент</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Средства Gradle не позоволяют создавать из кода образы с таким низким API level</t>
+  </si>
+  <si>
+    <t>В часах:</t>
+  </si>
+  <si>
+    <t>Установка приложения на планшет с minimal SDK, указанным в проекте</t>
+  </si>
+  <si>
+    <t>Созданный эмулятор в Android Studio с Google API 21, тип - планшет, ориентация по умолчанию - горизонтальная</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,8 +485,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,8 +507,20 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -471,12 +558,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -490,22 +602,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2472,16 +2609,143 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="B83:B92"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="B12:B21"/>
     <mergeCell ref="B22:B42"/>
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="B53:B62"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="B83:B92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="9"/>
+      <c r="K1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="20">
+        <f>SUM(I2:I1048576)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="17">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="19">
+        <f>L1/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="17">
+        <v>5</v>
+      </c>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>